--- a/raw_data/pop_stats.xlsx
+++ b/raw_data/pop_stats.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcalisto/Documents/gitRepos/workshop-spatial-graphql/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{729129E0-B8A8-5542-9DAD-1FEB3E7772A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A836BC4D-7AC1-D24B-A235-03F5C0F32312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C60E12EB-39B1-F846-B49E-BA980819F623}"/>
+    <workbookView xWindow="-6980" yWindow="-19960" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{C60E12EB-39B1-F846-B49E-BA980819F623}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="324">
   <si>
     <t>11A</t>
   </si>
@@ -256,6 +258,747 @@
   </si>
   <si>
     <t>Municipality_DICO</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>0310</t>
+  </si>
+  <si>
+    <t>0313</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>0311</t>
+  </si>
+  <si>
+    <t>0312</t>
+  </si>
+  <si>
+    <t>0314</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1713</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>1311</t>
+  </si>
+  <si>
+    <t>1813</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>0403</t>
+  </si>
+  <si>
+    <t>0404</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1815</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>1819</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>0409</t>
+  </si>
+  <si>
+    <t>0914</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>0405</t>
+  </si>
+  <si>
+    <t>0406</t>
+  </si>
+  <si>
+    <t>0407</t>
+  </si>
+  <si>
+    <t>0408</t>
+  </si>
+  <si>
+    <t>0410</t>
+  </si>
+  <si>
+    <t>0411</t>
+  </si>
+  <si>
+    <t>0412</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>0604</t>
+  </si>
+  <si>
+    <t>0605</t>
+  </si>
+  <si>
+    <t>0606</t>
+  </si>
+  <si>
+    <t>0607</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0608</t>
+  </si>
+  <si>
+    <t>0609</t>
+  </si>
+  <si>
+    <t>0610</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>0611</t>
+  </si>
+  <si>
+    <t>0612</t>
+  </si>
+  <si>
+    <t>0613</t>
+  </si>
+  <si>
+    <t>0614</t>
+  </si>
+  <si>
+    <t>0615</t>
+  </si>
+  <si>
+    <t>0616</t>
+  </si>
+  <si>
+    <t>0617</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1814</t>
+  </si>
+  <si>
+    <t>1816</t>
+  </si>
+  <si>
+    <t>1817</t>
+  </si>
+  <si>
+    <t>1821</t>
+  </si>
+  <si>
+    <t>1822</t>
+  </si>
+  <si>
+    <t>1823</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>0505</t>
+  </si>
+  <si>
+    <t>0506</t>
+  </si>
+  <si>
+    <t>0507</t>
+  </si>
+  <si>
+    <t>0508</t>
+  </si>
+  <si>
+    <t>0511</t>
+  </si>
+  <si>
+    <t>1401</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>0509</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>1419</t>
+  </si>
+  <si>
+    <t>0510</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>0903</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>0904</t>
+  </si>
+  <si>
+    <t>0905</t>
+  </si>
+  <si>
+    <t>0504</t>
+  </si>
+  <si>
+    <t>0906</t>
+  </si>
+  <si>
+    <t>0907</t>
+  </si>
+  <si>
+    <t>0908</t>
+  </si>
+  <si>
+    <t>0909</t>
+  </si>
+  <si>
+    <t>0910</t>
+  </si>
+  <si>
+    <t>0911</t>
+  </si>
+  <si>
+    <t>0912</t>
+  </si>
+  <si>
+    <t>0913</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>1509</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1405</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1416</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>0701</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>0705</t>
+  </si>
+  <si>
+    <t>0706</t>
+  </si>
+  <si>
+    <t>0707</t>
+  </si>
+  <si>
+    <t>0708</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>0710</t>
+  </si>
+  <si>
+    <t>0711</t>
+  </si>
+  <si>
+    <t>0712</t>
+  </si>
+  <si>
+    <t>0713</t>
+  </si>
+  <si>
+    <t>0714</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>0802</t>
+  </si>
+  <si>
+    <t>0803</t>
+  </si>
+  <si>
+    <t>0804</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>0806</t>
+  </si>
+  <si>
+    <t>0807</t>
+  </si>
+  <si>
+    <t>0808</t>
+  </si>
+  <si>
+    <t>0809</t>
+  </si>
+  <si>
+    <t>0810</t>
+  </si>
+  <si>
+    <t>0811</t>
+  </si>
+  <si>
+    <t>0812</t>
+  </si>
+  <si>
+    <t>0813</t>
+  </si>
+  <si>
+    <t>0814</t>
+  </si>
+  <si>
+    <t>0815</t>
+  </si>
+  <si>
+    <t>0816</t>
+  </si>
+  <si>
+    <t>dico</t>
+  </si>
+  <si>
+    <t>m_residents</t>
+  </si>
+  <si>
+    <t>f_residents</t>
+  </si>
+  <si>
+    <t>households</t>
   </si>
 </sst>
 </file>
@@ -615,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0677A5EA-2A5B-3449-B8D0-93305BB0132B}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1353,4 +2096,4456 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C95106-B3A3-CB41-8972-CAC97F017E06}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>10160</v>
+      </c>
+      <c r="C2">
+        <v>10994</v>
+      </c>
+      <c r="D2">
+        <v>7618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>14450</v>
+      </c>
+      <c r="C3">
+        <v>16577</v>
+      </c>
+      <c r="D3">
+        <v>12503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>77927</v>
+      </c>
+      <c r="C4">
+        <v>86328</v>
+      </c>
+      <c r="D4">
+        <v>64117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>64067</v>
+      </c>
+      <c r="C5">
+        <v>70892</v>
+      </c>
+      <c r="D5">
+        <v>52197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>81230</v>
+      </c>
+      <c r="C6">
+        <v>91439</v>
+      </c>
+      <c r="D6">
+        <v>70110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>32004</v>
+      </c>
+      <c r="C7">
+        <v>34208</v>
+      </c>
+      <c r="D7">
+        <v>24966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>40839</v>
+      </c>
+      <c r="C8">
+        <v>43575</v>
+      </c>
+      <c r="D8">
+        <v>30181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>106206</v>
+      </c>
+      <c r="C9">
+        <v>125756</v>
+      </c>
+      <c r="D9">
+        <v>102446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>30268</v>
+      </c>
+      <c r="C10">
+        <v>34052</v>
+      </c>
+      <c r="D10">
+        <v>23503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>65867</v>
+      </c>
+      <c r="C11">
+        <v>70853</v>
+      </c>
+      <c r="D11">
+        <v>51024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>32242</v>
+      </c>
+      <c r="C12">
+        <v>35543</v>
+      </c>
+      <c r="D12">
+        <v>25458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>10396</v>
+      </c>
+      <c r="C13">
+        <v>11766</v>
+      </c>
+      <c r="D13">
+        <v>9022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>18472</v>
+      </c>
+      <c r="C14">
+        <v>20140</v>
+      </c>
+      <c r="D14">
+        <v>13977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>10277</v>
+      </c>
+      <c r="C15">
+        <v>11002</v>
+      </c>
+      <c r="D15">
+        <v>8437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>44977</v>
+      </c>
+      <c r="C16">
+        <v>49818</v>
+      </c>
+      <c r="D16">
+        <v>36660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>38707</v>
+      </c>
+      <c r="C17">
+        <v>42214</v>
+      </c>
+      <c r="D17">
+        <v>29281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>144141</v>
+      </c>
+      <c r="C18">
+        <v>160008</v>
+      </c>
+      <c r="D18">
+        <v>121432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>9211</v>
+      </c>
+      <c r="C19">
+        <v>9937</v>
+      </c>
+      <c r="D19">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>83199</v>
+      </c>
+      <c r="C20">
+        <v>94201</v>
+      </c>
+      <c r="D20">
+        <v>75817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>79490</v>
+      </c>
+      <c r="C21">
+        <v>92229</v>
+      </c>
+      <c r="D21">
+        <v>73597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>36681</v>
+      </c>
+      <c r="C22">
+        <v>41681</v>
+      </c>
+      <c r="D22">
+        <v>34415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>99682</v>
+      </c>
+      <c r="C23">
+        <v>114452</v>
+      </c>
+      <c r="D23">
+        <v>86687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>253408</v>
+      </c>
+      <c r="C24">
+        <v>291443</v>
+      </c>
+      <c r="D24">
+        <v>242669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>95090</v>
+      </c>
+      <c r="C25">
+        <v>106556</v>
+      </c>
+      <c r="D25">
+        <v>81834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>41888</v>
+      </c>
+      <c r="C26">
+        <v>44635</v>
+      </c>
+      <c r="D26">
+        <v>33271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>31386</v>
+      </c>
+      <c r="C27">
+        <v>34940</v>
+      </c>
+      <c r="D27">
+        <v>27550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>27081</v>
+      </c>
+      <c r="C28">
+        <v>28651</v>
+      </c>
+      <c r="D28">
+        <v>22199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>69713</v>
+      </c>
+      <c r="C29">
+        <v>78443</v>
+      </c>
+      <c r="D29">
+        <v>60168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>79644</v>
+      </c>
+      <c r="C30">
+        <v>92158</v>
+      </c>
+      <c r="D30">
+        <v>73153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>33161</v>
+      </c>
+      <c r="C31">
+        <v>35718</v>
+      </c>
+      <c r="D31">
+        <v>26865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>78656</v>
+      </c>
+      <c r="C32">
+        <v>88037</v>
+      </c>
+      <c r="D32">
+        <v>67750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>25457</v>
+      </c>
+      <c r="C33">
+        <v>27008</v>
+      </c>
+      <c r="D33">
+        <v>20612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>58571</v>
+      </c>
+      <c r="C34">
+        <v>65113</v>
+      </c>
+      <c r="D34">
+        <v>51341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>181824</v>
+      </c>
+      <c r="C35">
+        <v>204130</v>
+      </c>
+      <c r="D35">
+        <v>153472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>65728</v>
+      </c>
+      <c r="C36">
+        <v>71931</v>
+      </c>
+      <c r="D36">
+        <v>55767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DD5026-BA6C-5845-A062-AA017FF4CF81}">
+  <dimension ref="A1:D279"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>9471</v>
+      </c>
+      <c r="C2">
+        <v>11258</v>
+      </c>
+      <c r="D2">
+        <v>8775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>7353</v>
+      </c>
+      <c r="C3">
+        <v>8475</v>
+      </c>
+      <c r="D3">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>3441</v>
+      </c>
+      <c r="C4">
+        <v>4335</v>
+      </c>
+      <c r="D4">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>8171</v>
+      </c>
+      <c r="C5">
+        <v>9658</v>
+      </c>
+      <c r="D5">
+        <v>7495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>4131</v>
+      </c>
+      <c r="C6">
+        <v>4505</v>
+      </c>
+      <c r="D6">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>5140</v>
+      </c>
+      <c r="C7">
+        <v>5918</v>
+      </c>
+      <c r="D7">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>19385</v>
+      </c>
+      <c r="C8">
+        <v>21819</v>
+      </c>
+      <c r="D8">
+        <v>14968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9">
+        <v>6407</v>
+      </c>
+      <c r="C9">
+        <v>7227</v>
+      </c>
+      <c r="D9">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>40513</v>
+      </c>
+      <c r="C10">
+        <v>45351</v>
+      </c>
+      <c r="D10">
+        <v>33140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>4312</v>
+      </c>
+      <c r="C11">
+        <v>4618</v>
+      </c>
+      <c r="D11">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12">
+        <v>9061</v>
+      </c>
+      <c r="C12">
+        <v>9530</v>
+      </c>
+      <c r="D12">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13">
+        <v>56231</v>
+      </c>
+      <c r="C13">
+        <v>60546</v>
+      </c>
+      <c r="D13">
+        <v>40263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14">
+        <v>92042</v>
+      </c>
+      <c r="C14">
+        <v>101291</v>
+      </c>
+      <c r="D14">
+        <v>72102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>16786</v>
+      </c>
+      <c r="C15">
+        <v>18359</v>
+      </c>
+      <c r="D15">
+        <v>12430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16">
+        <v>3079</v>
+      </c>
+      <c r="C16">
+        <v>3280</v>
+      </c>
+      <c r="D16">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17">
+        <v>22225</v>
+      </c>
+      <c r="C17">
+        <v>24249</v>
+      </c>
+      <c r="D17">
+        <v>16280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18">
+        <v>7546</v>
+      </c>
+      <c r="C18">
+        <v>8020</v>
+      </c>
+      <c r="D18">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>23041</v>
+      </c>
+      <c r="C19">
+        <v>25461</v>
+      </c>
+      <c r="D19">
+        <v>18384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <v>75740</v>
+      </c>
+      <c r="C20">
+        <v>81112</v>
+      </c>
+      <c r="D20">
+        <v>57790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21">
+        <v>3091</v>
+      </c>
+      <c r="C21">
+        <v>3325</v>
+      </c>
+      <c r="D21">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22">
+        <v>10443</v>
+      </c>
+      <c r="C22">
+        <v>11344</v>
+      </c>
+      <c r="D22">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23">
+        <v>5711</v>
+      </c>
+      <c r="C23">
+        <v>6259</v>
+      </c>
+      <c r="D23">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24">
+        <v>64434</v>
+      </c>
+      <c r="C24">
+        <v>69156</v>
+      </c>
+      <c r="D24">
+        <v>48268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25">
+        <v>11626</v>
+      </c>
+      <c r="C25">
+        <v>12277</v>
+      </c>
+      <c r="D25">
+        <v>8548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>10160</v>
+      </c>
+      <c r="C26">
+        <v>10994</v>
+      </c>
+      <c r="D26">
+        <v>7618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>14450</v>
+      </c>
+      <c r="C27">
+        <v>16577</v>
+      </c>
+      <c r="D27">
+        <v>12503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>77927</v>
+      </c>
+      <c r="C28">
+        <v>86328</v>
+      </c>
+      <c r="D28">
+        <v>64117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>64067</v>
+      </c>
+      <c r="C29">
+        <v>70892</v>
+      </c>
+      <c r="D29">
+        <v>52197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>81230</v>
+      </c>
+      <c r="C30">
+        <v>91439</v>
+      </c>
+      <c r="D30">
+        <v>70110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>32004</v>
+      </c>
+      <c r="C31">
+        <v>34208</v>
+      </c>
+      <c r="D31">
+        <v>24966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>40839</v>
+      </c>
+      <c r="C32">
+        <v>43575</v>
+      </c>
+      <c r="D32">
+        <v>30181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>106206</v>
+      </c>
+      <c r="C33">
+        <v>125756</v>
+      </c>
+      <c r="D33">
+        <v>102446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>30268</v>
+      </c>
+      <c r="C34">
+        <v>34052</v>
+      </c>
+      <c r="D34">
+        <v>23503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>65867</v>
+      </c>
+      <c r="C35">
+        <v>70853</v>
+      </c>
+      <c r="D35">
+        <v>51024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>32242</v>
+      </c>
+      <c r="C36">
+        <v>35543</v>
+      </c>
+      <c r="D36">
+        <v>25458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>10396</v>
+      </c>
+      <c r="C37">
+        <v>11766</v>
+      </c>
+      <c r="D37">
+        <v>9022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>18472</v>
+      </c>
+      <c r="C38">
+        <v>20140</v>
+      </c>
+      <c r="D38">
+        <v>13977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39">
+        <v>10277</v>
+      </c>
+      <c r="C39">
+        <v>11002</v>
+      </c>
+      <c r="D39">
+        <v>8437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>44977</v>
+      </c>
+      <c r="C40">
+        <v>49818</v>
+      </c>
+      <c r="D40">
+        <v>36660</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>38707</v>
+      </c>
+      <c r="C41">
+        <v>42214</v>
+      </c>
+      <c r="D41">
+        <v>29281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>144141</v>
+      </c>
+      <c r="C42">
+        <v>160008</v>
+      </c>
+      <c r="D42">
+        <v>121432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43">
+        <v>2390</v>
+      </c>
+      <c r="C43">
+        <v>2612</v>
+      </c>
+      <c r="D43">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44">
+        <v>17840</v>
+      </c>
+      <c r="C44">
+        <v>19783</v>
+      </c>
+      <c r="D44">
+        <v>15941</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45">
+        <v>4466</v>
+      </c>
+      <c r="C45">
+        <v>4813</v>
+      </c>
+      <c r="D45">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46">
+        <v>2895</v>
+      </c>
+      <c r="C46">
+        <v>2992</v>
+      </c>
+      <c r="D46">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47">
+        <v>6877</v>
+      </c>
+      <c r="C47">
+        <v>7837</v>
+      </c>
+      <c r="D47">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48">
+        <v>5612</v>
+      </c>
+      <c r="C48">
+        <v>6213</v>
+      </c>
+      <c r="D48">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49">
+        <v>24725</v>
+      </c>
+      <c r="C49">
+        <v>27406</v>
+      </c>
+      <c r="D49">
+        <v>19668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50">
+        <v>8301</v>
+      </c>
+      <c r="C50">
+        <v>9226</v>
+      </c>
+      <c r="D50">
+        <v>6708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51">
+        <v>7535</v>
+      </c>
+      <c r="C51">
+        <v>8062</v>
+      </c>
+      <c r="D51">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52">
+        <v>8410</v>
+      </c>
+      <c r="C52">
+        <v>9256</v>
+      </c>
+      <c r="D52">
+        <v>6631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53">
+        <v>8603</v>
+      </c>
+      <c r="C53">
+        <v>9144</v>
+      </c>
+      <c r="D53">
+        <v>6789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54">
+        <v>26923</v>
+      </c>
+      <c r="C54">
+        <v>28960</v>
+      </c>
+      <c r="D54">
+        <v>19918</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55">
+        <v>22890</v>
+      </c>
+      <c r="C55">
+        <v>24511</v>
+      </c>
+      <c r="D55">
+        <v>16723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56">
+        <v>23764</v>
+      </c>
+      <c r="C56">
+        <v>25799</v>
+      </c>
+      <c r="D56">
+        <v>18031</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57">
+        <v>27362</v>
+      </c>
+      <c r="C57">
+        <v>28261</v>
+      </c>
+      <c r="D57">
+        <v>19126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58">
+        <v>33447</v>
+      </c>
+      <c r="C58">
+        <v>36240</v>
+      </c>
+      <c r="D58">
+        <v>25216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59">
+        <v>4893</v>
+      </c>
+      <c r="C59">
+        <v>5160</v>
+      </c>
+      <c r="D59">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60">
+        <v>5105</v>
+      </c>
+      <c r="C60">
+        <v>5387</v>
+      </c>
+      <c r="D60">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61">
+        <v>2662</v>
+      </c>
+      <c r="C61">
+        <v>3018</v>
+      </c>
+      <c r="D61">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62">
+        <v>2623</v>
+      </c>
+      <c r="C62">
+        <v>2871</v>
+      </c>
+      <c r="D62">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63">
+        <v>1533</v>
+      </c>
+      <c r="C63">
+        <v>1682</v>
+      </c>
+      <c r="D63">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64">
+        <v>11509</v>
+      </c>
+      <c r="C64">
+        <v>12839</v>
+      </c>
+      <c r="D64">
+        <v>9679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65">
+        <v>1662</v>
+      </c>
+      <c r="C65">
+        <v>1893</v>
+      </c>
+      <c r="D65">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66">
+        <v>4483</v>
+      </c>
+      <c r="C66">
+        <v>4928</v>
+      </c>
+      <c r="D66">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67">
+        <v>2530</v>
+      </c>
+      <c r="C67">
+        <v>2719</v>
+      </c>
+      <c r="D67">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68">
+        <v>1285</v>
+      </c>
+      <c r="C68">
+        <v>1446</v>
+      </c>
+      <c r="D68">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69">
+        <v>6822</v>
+      </c>
+      <c r="C69">
+        <v>7731</v>
+      </c>
+      <c r="D69">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70">
+        <v>2654</v>
+      </c>
+      <c r="C70">
+        <v>2902</v>
+      </c>
+      <c r="D70">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71">
+        <v>2899</v>
+      </c>
+      <c r="C71">
+        <v>3205</v>
+      </c>
+      <c r="D71">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72">
+        <v>3316</v>
+      </c>
+      <c r="C72">
+        <v>3464</v>
+      </c>
+      <c r="D72">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73">
+        <v>2760</v>
+      </c>
+      <c r="C73">
+        <v>2953</v>
+      </c>
+      <c r="D73">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74">
+        <v>2372</v>
+      </c>
+      <c r="C74">
+        <v>2667</v>
+      </c>
+      <c r="D74">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75">
+        <v>3529</v>
+      </c>
+      <c r="C75">
+        <v>3845</v>
+      </c>
+      <c r="D75">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76">
+        <v>3221</v>
+      </c>
+      <c r="C76">
+        <v>3601</v>
+      </c>
+      <c r="D76">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77">
+        <v>2983</v>
+      </c>
+      <c r="C77">
+        <v>3321</v>
+      </c>
+      <c r="D77">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78">
+        <v>23378</v>
+      </c>
+      <c r="C78">
+        <v>26245</v>
+      </c>
+      <c r="D78">
+        <v>19809</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79">
+        <v>2089</v>
+      </c>
+      <c r="C79">
+        <v>2232</v>
+      </c>
+      <c r="D79">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80">
+        <v>16511</v>
+      </c>
+      <c r="C80">
+        <v>18069</v>
+      </c>
+      <c r="D80">
+        <v>14329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81">
+        <v>6761</v>
+      </c>
+      <c r="C81">
+        <v>7491</v>
+      </c>
+      <c r="D81">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82">
+        <v>3120</v>
+      </c>
+      <c r="C82">
+        <v>3346</v>
+      </c>
+      <c r="D82">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83">
+        <v>10103</v>
+      </c>
+      <c r="C83">
+        <v>11286</v>
+      </c>
+      <c r="D83">
+        <v>8912</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84">
+        <v>4000</v>
+      </c>
+      <c r="C84">
+        <v>4304</v>
+      </c>
+      <c r="D84">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85">
+        <v>2917</v>
+      </c>
+      <c r="C85">
+        <v>3147</v>
+      </c>
+      <c r="D85">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86">
+        <v>2009</v>
+      </c>
+      <c r="C86">
+        <v>2145</v>
+      </c>
+      <c r="D86">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87">
+        <v>3810</v>
+      </c>
+      <c r="C87">
+        <v>3962</v>
+      </c>
+      <c r="D87">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88">
+        <v>26468</v>
+      </c>
+      <c r="C88">
+        <v>28513</v>
+      </c>
+      <c r="D88">
+        <v>22463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89">
+        <v>21547</v>
+      </c>
+      <c r="C89">
+        <v>22881</v>
+      </c>
+      <c r="D89">
+        <v>17304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90">
+        <v>6829</v>
+      </c>
+      <c r="C90">
+        <v>7154</v>
+      </c>
+      <c r="D90">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91">
+        <v>6108</v>
+      </c>
+      <c r="C91">
+        <v>6635</v>
+      </c>
+      <c r="D91">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92">
+        <v>6417</v>
+      </c>
+      <c r="C92">
+        <v>6965</v>
+      </c>
+      <c r="D92">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93">
+        <v>23963</v>
+      </c>
+      <c r="C93">
+        <v>26935</v>
+      </c>
+      <c r="D93">
+        <v>21348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94">
+        <v>12685</v>
+      </c>
+      <c r="C94">
+        <v>13576</v>
+      </c>
+      <c r="D94">
+        <v>10719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95">
+        <v>7090</v>
+      </c>
+      <c r="C95">
+        <v>7799</v>
+      </c>
+      <c r="D95">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96">
+        <v>5835</v>
+      </c>
+      <c r="C96">
+        <v>6105</v>
+      </c>
+      <c r="D96">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97">
+        <v>12660</v>
+      </c>
+      <c r="C97">
+        <v>13759</v>
+      </c>
+      <c r="D97">
+        <v>11014</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98">
+        <v>5070</v>
+      </c>
+      <c r="C98">
+        <v>5472</v>
+      </c>
+      <c r="D98">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99">
+        <v>40154</v>
+      </c>
+      <c r="C99">
+        <v>42976</v>
+      </c>
+      <c r="D99">
+        <v>32737</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100">
+        <v>22124</v>
+      </c>
+      <c r="C100">
+        <v>24010</v>
+      </c>
+      <c r="D100">
+        <v>17926</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101">
+        <v>12073</v>
+      </c>
+      <c r="C101">
+        <v>12768</v>
+      </c>
+      <c r="D101">
+        <v>9669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102">
+        <v>13149</v>
+      </c>
+      <c r="C102">
+        <v>14393</v>
+      </c>
+      <c r="D102">
+        <v>10860</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>161</v>
+      </c>
+      <c r="B103">
+        <v>38371</v>
+      </c>
+      <c r="C103">
+        <v>42509</v>
+      </c>
+      <c r="D103">
+        <v>32999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104">
+        <v>12695</v>
+      </c>
+      <c r="C104">
+        <v>13534</v>
+      </c>
+      <c r="D104">
+        <v>9845</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105">
+        <v>18607</v>
+      </c>
+      <c r="C105">
+        <v>20634</v>
+      </c>
+      <c r="D105">
+        <v>15633</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106">
+        <v>5047</v>
+      </c>
+      <c r="C106">
+        <v>5441</v>
+      </c>
+      <c r="D106">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107">
+        <v>10964</v>
+      </c>
+      <c r="C107">
+        <v>12186</v>
+      </c>
+      <c r="D107">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108">
+        <v>26312</v>
+      </c>
+      <c r="C108">
+        <v>28664</v>
+      </c>
+      <c r="D108">
+        <v>20943</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109">
+        <v>5339</v>
+      </c>
+      <c r="C109">
+        <v>5730</v>
+      </c>
+      <c r="D109">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110">
+        <v>10988</v>
+      </c>
+      <c r="C110">
+        <v>11917</v>
+      </c>
+      <c r="D110">
+        <v>8738</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111">
+        <v>5289</v>
+      </c>
+      <c r="C111">
+        <v>5778</v>
+      </c>
+      <c r="D111">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112">
+        <v>16127</v>
+      </c>
+      <c r="C112">
+        <v>18091</v>
+      </c>
+      <c r="D112">
+        <v>13741</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113">
+        <v>65435</v>
+      </c>
+      <c r="C113">
+        <v>75361</v>
+      </c>
+      <c r="D113">
+        <v>60088</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114">
+        <v>7803</v>
+      </c>
+      <c r="C114">
+        <v>8930</v>
+      </c>
+      <c r="D114">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115">
+        <v>27884</v>
+      </c>
+      <c r="C115">
+        <v>31098</v>
+      </c>
+      <c r="D115">
+        <v>24647</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116">
+        <v>1754</v>
+      </c>
+      <c r="C116">
+        <v>2052</v>
+      </c>
+      <c r="D116">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117">
+        <v>8187</v>
+      </c>
+      <c r="C117">
+        <v>8825</v>
+      </c>
+      <c r="D117">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118">
+        <v>9244</v>
+      </c>
+      <c r="C118">
+        <v>10114</v>
+      </c>
+      <c r="D118">
+        <v>7671</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119">
+        <v>5753</v>
+      </c>
+      <c r="C119">
+        <v>6373</v>
+      </c>
+      <c r="D119">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120">
+        <v>5756</v>
+      </c>
+      <c r="C120">
+        <v>6258</v>
+      </c>
+      <c r="D120">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121">
+        <v>11788</v>
+      </c>
+      <c r="C121">
+        <v>12799</v>
+      </c>
+      <c r="D121">
+        <v>9583</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122">
+        <v>4249</v>
+      </c>
+      <c r="C122">
+        <v>4711</v>
+      </c>
+      <c r="D122">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123">
+        <v>9278</v>
+      </c>
+      <c r="C123">
+        <v>10143</v>
+      </c>
+      <c r="D123">
+        <v>7851</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>182</v>
+      </c>
+      <c r="B124">
+        <v>1880</v>
+      </c>
+      <c r="C124">
+        <v>2187</v>
+      </c>
+      <c r="D124">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>183</v>
+      </c>
+      <c r="B125">
+        <v>6168</v>
+      </c>
+      <c r="C125">
+        <v>6951</v>
+      </c>
+      <c r="D125">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>184</v>
+      </c>
+      <c r="B126">
+        <v>2595</v>
+      </c>
+      <c r="C126">
+        <v>2848</v>
+      </c>
+      <c r="D126">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127">
+        <v>8155</v>
+      </c>
+      <c r="C127">
+        <v>9109</v>
+      </c>
+      <c r="D127">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>186</v>
+      </c>
+      <c r="B128">
+        <v>5283</v>
+      </c>
+      <c r="C128">
+        <v>5880</v>
+      </c>
+      <c r="D128">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129">
+        <v>3205</v>
+      </c>
+      <c r="C129">
+        <v>3608</v>
+      </c>
+      <c r="D129">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130">
+        <v>2896</v>
+      </c>
+      <c r="C130">
+        <v>3331</v>
+      </c>
+      <c r="D130">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>189</v>
+      </c>
+      <c r="B131">
+        <v>5506</v>
+      </c>
+      <c r="C131">
+        <v>6126</v>
+      </c>
+      <c r="D131">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>190</v>
+      </c>
+      <c r="B132">
+        <v>7527</v>
+      </c>
+      <c r="C132">
+        <v>8026</v>
+      </c>
+      <c r="D132">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>191</v>
+      </c>
+      <c r="B133">
+        <v>1247</v>
+      </c>
+      <c r="C133">
+        <v>1400</v>
+      </c>
+      <c r="D133">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>192</v>
+      </c>
+      <c r="B134">
+        <v>2502</v>
+      </c>
+      <c r="C134">
+        <v>2794</v>
+      </c>
+      <c r="D134">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>193</v>
+      </c>
+      <c r="B135">
+        <v>61793</v>
+      </c>
+      <c r="C135">
+        <v>66847</v>
+      </c>
+      <c r="D135">
+        <v>51534</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>194</v>
+      </c>
+      <c r="B136">
+        <v>18833</v>
+      </c>
+      <c r="C136">
+        <v>20200</v>
+      </c>
+      <c r="D136">
+        <v>16132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137">
+        <v>1611</v>
+      </c>
+      <c r="C137">
+        <v>1781</v>
+      </c>
+      <c r="D137">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>196</v>
+      </c>
+      <c r="B138">
+        <v>24334</v>
+      </c>
+      <c r="C138">
+        <v>26844</v>
+      </c>
+      <c r="D138">
+        <v>20893</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>197</v>
+      </c>
+      <c r="B139">
+        <v>11266</v>
+      </c>
+      <c r="C139">
+        <v>11945</v>
+      </c>
+      <c r="D139">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>198</v>
+      </c>
+      <c r="B140">
+        <v>2456</v>
+      </c>
+      <c r="C140">
+        <v>2772</v>
+      </c>
+      <c r="D140">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>199</v>
+      </c>
+      <c r="B141">
+        <v>4234</v>
+      </c>
+      <c r="C141">
+        <v>4814</v>
+      </c>
+      <c r="D141">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142">
+        <v>6542</v>
+      </c>
+      <c r="C142">
+        <v>7211</v>
+      </c>
+      <c r="D142">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143">
+        <v>8722</v>
+      </c>
+      <c r="C143">
+        <v>9572</v>
+      </c>
+      <c r="D143">
+        <v>7409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>202</v>
+      </c>
+      <c r="B144">
+        <v>6188</v>
+      </c>
+      <c r="C144">
+        <v>6936</v>
+      </c>
+      <c r="D144">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>203</v>
+      </c>
+      <c r="B145">
+        <v>4554</v>
+      </c>
+      <c r="C145">
+        <v>4956</v>
+      </c>
+      <c r="D145">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>204</v>
+      </c>
+      <c r="B146">
+        <v>3512</v>
+      </c>
+      <c r="C146">
+        <v>3828</v>
+      </c>
+      <c r="D146">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>205</v>
+      </c>
+      <c r="B147">
+        <v>5016</v>
+      </c>
+      <c r="C147">
+        <v>5626</v>
+      </c>
+      <c r="D147">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148">
+        <v>7149</v>
+      </c>
+      <c r="C148">
+        <v>7990</v>
+      </c>
+      <c r="D148">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149">
+        <v>5205</v>
+      </c>
+      <c r="C149">
+        <v>5821</v>
+      </c>
+      <c r="D149">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>208</v>
+      </c>
+      <c r="B150">
+        <v>12246</v>
+      </c>
+      <c r="C150">
+        <v>13693</v>
+      </c>
+      <c r="D150">
+        <v>10541</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>209</v>
+      </c>
+      <c r="B151">
+        <v>2232</v>
+      </c>
+      <c r="C151">
+        <v>2428</v>
+      </c>
+      <c r="D151">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>210</v>
+      </c>
+      <c r="B152">
+        <v>46803</v>
+      </c>
+      <c r="C152">
+        <v>52890</v>
+      </c>
+      <c r="D152">
+        <v>39195</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>211</v>
+      </c>
+      <c r="B153">
+        <v>4514</v>
+      </c>
+      <c r="C153">
+        <v>5074</v>
+      </c>
+      <c r="D153">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>212</v>
+      </c>
+      <c r="B154">
+        <v>24670</v>
+      </c>
+      <c r="C154">
+        <v>27602</v>
+      </c>
+      <c r="D154">
+        <v>22680</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>213</v>
+      </c>
+      <c r="B155">
+        <v>3990</v>
+      </c>
+      <c r="C155">
+        <v>4350</v>
+      </c>
+      <c r="D155">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>214</v>
+      </c>
+      <c r="B156">
+        <v>2325</v>
+      </c>
+      <c r="C156">
+        <v>2575</v>
+      </c>
+      <c r="D156">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>215</v>
+      </c>
+      <c r="B157">
+        <v>2336</v>
+      </c>
+      <c r="C157">
+        <v>2428</v>
+      </c>
+      <c r="D157">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>216</v>
+      </c>
+      <c r="B158">
+        <v>3465</v>
+      </c>
+      <c r="C158">
+        <v>3682</v>
+      </c>
+      <c r="D158">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>217</v>
+      </c>
+      <c r="B159">
+        <v>1563</v>
+      </c>
+      <c r="C159">
+        <v>1724</v>
+      </c>
+      <c r="D159">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160">
+        <v>16396</v>
+      </c>
+      <c r="C160">
+        <v>17955</v>
+      </c>
+      <c r="D160">
+        <v>14847</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>219</v>
+      </c>
+      <c r="B161">
+        <v>5998</v>
+      </c>
+      <c r="C161">
+        <v>6480</v>
+      </c>
+      <c r="D161">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>220</v>
+      </c>
+      <c r="B162">
+        <v>1820</v>
+      </c>
+      <c r="C162">
+        <v>1981</v>
+      </c>
+      <c r="D162">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>221</v>
+      </c>
+      <c r="B163">
+        <v>9494</v>
+      </c>
+      <c r="C163">
+        <v>10646</v>
+      </c>
+      <c r="D163">
+        <v>8364</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164">
+        <v>3690</v>
+      </c>
+      <c r="C164">
+        <v>4113</v>
+      </c>
+      <c r="D164">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165">
+        <v>3066</v>
+      </c>
+      <c r="C165">
+        <v>3351</v>
+      </c>
+      <c r="D165">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166">
+        <v>20894</v>
+      </c>
+      <c r="C166">
+        <v>23682</v>
+      </c>
+      <c r="D166">
+        <v>17443</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167">
+        <v>1699</v>
+      </c>
+      <c r="C167">
+        <v>1827</v>
+      </c>
+      <c r="D167">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168">
+        <v>7084</v>
+      </c>
+      <c r="C168">
+        <v>7664</v>
+      </c>
+      <c r="D168">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>227</v>
+      </c>
+      <c r="B169">
+        <v>17077</v>
+      </c>
+      <c r="C169">
+        <v>19367</v>
+      </c>
+      <c r="D169">
+        <v>15724</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>228</v>
+      </c>
+      <c r="B170">
+        <v>16254</v>
+      </c>
+      <c r="C170">
+        <v>17895</v>
+      </c>
+      <c r="D170">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>229</v>
+      </c>
+      <c r="B171">
+        <v>1531</v>
+      </c>
+      <c r="C171">
+        <v>1745</v>
+      </c>
+      <c r="D171">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>230</v>
+      </c>
+      <c r="B172">
+        <v>3312</v>
+      </c>
+      <c r="C172">
+        <v>3723</v>
+      </c>
+      <c r="D172">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>231</v>
+      </c>
+      <c r="B173">
+        <v>2751</v>
+      </c>
+      <c r="C173">
+        <v>3131</v>
+      </c>
+      <c r="D173">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>232</v>
+      </c>
+      <c r="B174">
+        <v>2960</v>
+      </c>
+      <c r="C174">
+        <v>3244</v>
+      </c>
+      <c r="D174">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>233</v>
+      </c>
+      <c r="B175">
+        <v>3102</v>
+      </c>
+      <c r="C175">
+        <v>3480</v>
+      </c>
+      <c r="D175">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>234</v>
+      </c>
+      <c r="B176">
+        <v>22057</v>
+      </c>
+      <c r="C176">
+        <v>24396</v>
+      </c>
+      <c r="D176">
+        <v>20299</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>235</v>
+      </c>
+      <c r="B177">
+        <v>2455</v>
+      </c>
+      <c r="C177">
+        <v>2695</v>
+      </c>
+      <c r="D177">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>236</v>
+      </c>
+      <c r="B178">
+        <v>2031</v>
+      </c>
+      <c r="C178">
+        <v>2367</v>
+      </c>
+      <c r="D178">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>237</v>
+      </c>
+      <c r="B179">
+        <v>12728</v>
+      </c>
+      <c r="C179">
+        <v>13793</v>
+      </c>
+      <c r="D179">
+        <v>11607</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>238</v>
+      </c>
+      <c r="B180">
+        <v>5706</v>
+      </c>
+      <c r="C180">
+        <v>6515</v>
+      </c>
+      <c r="D180">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>239</v>
+      </c>
+      <c r="B181">
+        <v>19127</v>
+      </c>
+      <c r="C181">
+        <v>21028</v>
+      </c>
+      <c r="D181">
+        <v>16425</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>240</v>
+      </c>
+      <c r="B182">
+        <v>1352</v>
+      </c>
+      <c r="C182">
+        <v>1557</v>
+      </c>
+      <c r="D182">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>241</v>
+      </c>
+      <c r="B183">
+        <v>2198</v>
+      </c>
+      <c r="C183">
+        <v>2434</v>
+      </c>
+      <c r="D183">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>242</v>
+      </c>
+      <c r="B184">
+        <v>3878</v>
+      </c>
+      <c r="C184">
+        <v>4221</v>
+      </c>
+      <c r="D184">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>243</v>
+      </c>
+      <c r="B185">
+        <v>5324</v>
+      </c>
+      <c r="C185">
+        <v>5957</v>
+      </c>
+      <c r="D185">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>244</v>
+      </c>
+      <c r="B186">
+        <v>10281</v>
+      </c>
+      <c r="C186">
+        <v>11478</v>
+      </c>
+      <c r="D186">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>245</v>
+      </c>
+      <c r="B187">
+        <v>3986</v>
+      </c>
+      <c r="C187">
+        <v>4433</v>
+      </c>
+      <c r="D187">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>36</v>
+      </c>
+      <c r="B188">
+        <v>9211</v>
+      </c>
+      <c r="C188">
+        <v>9937</v>
+      </c>
+      <c r="D188">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>38</v>
+      </c>
+      <c r="B189">
+        <v>83199</v>
+      </c>
+      <c r="C189">
+        <v>94201</v>
+      </c>
+      <c r="D189">
+        <v>75817</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190">
+        <v>79490</v>
+      </c>
+      <c r="C190">
+        <v>92229</v>
+      </c>
+      <c r="D190">
+        <v>73597</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>42</v>
+      </c>
+      <c r="B191">
+        <v>36681</v>
+      </c>
+      <c r="C191">
+        <v>41681</v>
+      </c>
+      <c r="D191">
+        <v>34415</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>44</v>
+      </c>
+      <c r="B192">
+        <v>99682</v>
+      </c>
+      <c r="C192">
+        <v>114452</v>
+      </c>
+      <c r="D192">
+        <v>86687</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>46</v>
+      </c>
+      <c r="B193">
+        <v>253408</v>
+      </c>
+      <c r="C193">
+        <v>291443</v>
+      </c>
+      <c r="D193">
+        <v>242669</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>48</v>
+      </c>
+      <c r="B194">
+        <v>95090</v>
+      </c>
+      <c r="C194">
+        <v>106556</v>
+      </c>
+      <c r="D194">
+        <v>81834</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>50</v>
+      </c>
+      <c r="B195">
+        <v>41888</v>
+      </c>
+      <c r="C195">
+        <v>44635</v>
+      </c>
+      <c r="D195">
+        <v>33271</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>52</v>
+      </c>
+      <c r="B196">
+        <v>31386</v>
+      </c>
+      <c r="C196">
+        <v>34940</v>
+      </c>
+      <c r="D196">
+        <v>27550</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>54</v>
+      </c>
+      <c r="B197">
+        <v>27081</v>
+      </c>
+      <c r="C197">
+        <v>28651</v>
+      </c>
+      <c r="D197">
+        <v>22199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198">
+        <v>69713</v>
+      </c>
+      <c r="C198">
+        <v>78443</v>
+      </c>
+      <c r="D198">
+        <v>60168</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>58</v>
+      </c>
+      <c r="B199">
+        <v>79644</v>
+      </c>
+      <c r="C199">
+        <v>92158</v>
+      </c>
+      <c r="D199">
+        <v>73153</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>60</v>
+      </c>
+      <c r="B200">
+        <v>33161</v>
+      </c>
+      <c r="C200">
+        <v>35718</v>
+      </c>
+      <c r="D200">
+        <v>26865</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>62</v>
+      </c>
+      <c r="B201">
+        <v>78656</v>
+      </c>
+      <c r="C201">
+        <v>88037</v>
+      </c>
+      <c r="D201">
+        <v>67750</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>64</v>
+      </c>
+      <c r="B202">
+        <v>25457</v>
+      </c>
+      <c r="C202">
+        <v>27008</v>
+      </c>
+      <c r="D202">
+        <v>20612</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>66</v>
+      </c>
+      <c r="B203">
+        <v>58571</v>
+      </c>
+      <c r="C203">
+        <v>65113</v>
+      </c>
+      <c r="D203">
+        <v>51341</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>68</v>
+      </c>
+      <c r="B204">
+        <v>181824</v>
+      </c>
+      <c r="C204">
+        <v>204130</v>
+      </c>
+      <c r="D204">
+        <v>153472</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>70</v>
+      </c>
+      <c r="B205">
+        <v>65728</v>
+      </c>
+      <c r="C205">
+        <v>71931</v>
+      </c>
+      <c r="D205">
+        <v>55767</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>246</v>
+      </c>
+      <c r="B206">
+        <v>5370</v>
+      </c>
+      <c r="C206">
+        <v>5755</v>
+      </c>
+      <c r="D206">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>247</v>
+      </c>
+      <c r="B207">
+        <v>6989</v>
+      </c>
+      <c r="C207">
+        <v>6838</v>
+      </c>
+      <c r="D207">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>248</v>
+      </c>
+      <c r="B208">
+        <v>16335</v>
+      </c>
+      <c r="C208">
+        <v>13188</v>
+      </c>
+      <c r="D208">
+        <v>11452</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>249</v>
+      </c>
+      <c r="B209">
+        <v>13442</v>
+      </c>
+      <c r="C209">
+        <v>14359</v>
+      </c>
+      <c r="D209">
+        <v>12222</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>250</v>
+      </c>
+      <c r="B210">
+        <v>6821</v>
+      </c>
+      <c r="C210">
+        <v>7393</v>
+      </c>
+      <c r="D210">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>251</v>
+      </c>
+      <c r="B211">
+        <v>4379</v>
+      </c>
+      <c r="C211">
+        <v>4500</v>
+      </c>
+      <c r="D211">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>252</v>
+      </c>
+      <c r="B212">
+        <v>3300</v>
+      </c>
+      <c r="C212">
+        <v>3409</v>
+      </c>
+      <c r="D212">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>253</v>
+      </c>
+      <c r="B213">
+        <v>1085</v>
+      </c>
+      <c r="C213">
+        <v>1191</v>
+      </c>
+      <c r="D213">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>254</v>
+      </c>
+      <c r="B214">
+        <v>697</v>
+      </c>
+      <c r="C214">
+        <v>738</v>
+      </c>
+      <c r="D214">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>255</v>
+      </c>
+      <c r="B215">
+        <v>16284</v>
+      </c>
+      <c r="C215">
+        <v>17117</v>
+      </c>
+      <c r="D215">
+        <v>13655</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>256</v>
+      </c>
+      <c r="B216">
+        <v>3313</v>
+      </c>
+      <c r="C216">
+        <v>3565</v>
+      </c>
+      <c r="D216">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>257</v>
+      </c>
+      <c r="B217">
+        <v>2153</v>
+      </c>
+      <c r="C217">
+        <v>2221</v>
+      </c>
+      <c r="D217">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>258</v>
+      </c>
+      <c r="B218">
+        <v>3856</v>
+      </c>
+      <c r="C218">
+        <v>3820</v>
+      </c>
+      <c r="D218">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>259</v>
+      </c>
+      <c r="B219">
+        <v>3069</v>
+      </c>
+      <c r="C219">
+        <v>3136</v>
+      </c>
+      <c r="D219">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>260</v>
+      </c>
+      <c r="B220">
+        <v>6415</v>
+      </c>
+      <c r="C220">
+        <v>6852</v>
+      </c>
+      <c r="D220">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>261</v>
+      </c>
+      <c r="B221">
+        <v>2361</v>
+      </c>
+      <c r="C221">
+        <v>2481</v>
+      </c>
+      <c r="D221">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>262</v>
+      </c>
+      <c r="B222">
+        <v>6845</v>
+      </c>
+      <c r="C222">
+        <v>6923</v>
+      </c>
+      <c r="D222">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>263</v>
+      </c>
+      <c r="B223">
+        <v>2502</v>
+      </c>
+      <c r="C223">
+        <v>2675</v>
+      </c>
+      <c r="D223">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>264</v>
+      </c>
+      <c r="B224">
+        <v>10451</v>
+      </c>
+      <c r="C224">
+        <v>11582</v>
+      </c>
+      <c r="D224">
+        <v>9047</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>265</v>
+      </c>
+      <c r="B225">
+        <v>3323</v>
+      </c>
+      <c r="C225">
+        <v>3663</v>
+      </c>
+      <c r="D225">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>266</v>
+      </c>
+      <c r="B226">
+        <v>10686</v>
+      </c>
+      <c r="C226">
+        <v>10735</v>
+      </c>
+      <c r="D226">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>267</v>
+      </c>
+      <c r="B227">
+        <v>14267</v>
+      </c>
+      <c r="C227">
+        <v>15480</v>
+      </c>
+      <c r="D227">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>268</v>
+      </c>
+      <c r="B228">
+        <v>11136</v>
+      </c>
+      <c r="C228">
+        <v>12075</v>
+      </c>
+      <c r="D228">
+        <v>9579</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>269</v>
+      </c>
+      <c r="B229">
+        <v>4102</v>
+      </c>
+      <c r="C229">
+        <v>4434</v>
+      </c>
+      <c r="D229">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>270</v>
+      </c>
+      <c r="B230">
+        <v>8203</v>
+      </c>
+      <c r="C230">
+        <v>9172</v>
+      </c>
+      <c r="D230">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>271</v>
+      </c>
+      <c r="B231">
+        <v>2530</v>
+      </c>
+      <c r="C231">
+        <v>2870</v>
+      </c>
+      <c r="D231">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>272</v>
+      </c>
+      <c r="B232">
+        <v>10225</v>
+      </c>
+      <c r="C232">
+        <v>10796</v>
+      </c>
+      <c r="D232">
+        <v>8474</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>273</v>
+      </c>
+      <c r="B233">
+        <v>10354</v>
+      </c>
+      <c r="C233">
+        <v>11278</v>
+      </c>
+      <c r="D233">
+        <v>8579</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>274</v>
+      </c>
+      <c r="B234">
+        <v>27741</v>
+      </c>
+      <c r="C234">
+        <v>31029</v>
+      </c>
+      <c r="D234">
+        <v>24416</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>275</v>
+      </c>
+      <c r="B235">
+        <v>1384</v>
+      </c>
+      <c r="C235">
+        <v>1662</v>
+      </c>
+      <c r="D235">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>276</v>
+      </c>
+      <c r="B236">
+        <v>1379</v>
+      </c>
+      <c r="C236">
+        <v>1410</v>
+      </c>
+      <c r="D236">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>277</v>
+      </c>
+      <c r="B237">
+        <v>1785</v>
+      </c>
+      <c r="C237">
+        <v>2028</v>
+      </c>
+      <c r="D237">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>278</v>
+      </c>
+      <c r="B238">
+        <v>3875</v>
+      </c>
+      <c r="C238">
+        <v>4170</v>
+      </c>
+      <c r="D238">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>279</v>
+      </c>
+      <c r="B239">
+        <v>1503</v>
+      </c>
+      <c r="C239">
+        <v>1618</v>
+      </c>
+      <c r="D239">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>280</v>
+      </c>
+      <c r="B240">
+        <v>1485</v>
+      </c>
+      <c r="C240">
+        <v>1740</v>
+      </c>
+      <c r="D240">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>281</v>
+      </c>
+      <c r="B241">
+        <v>9870</v>
+      </c>
+      <c r="C241">
+        <v>10883</v>
+      </c>
+      <c r="D241">
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>282</v>
+      </c>
+      <c r="B242">
+        <v>1350</v>
+      </c>
+      <c r="C242">
+        <v>1506</v>
+      </c>
+      <c r="D242">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>283</v>
+      </c>
+      <c r="B243">
+        <v>1576</v>
+      </c>
+      <c r="C243">
+        <v>1822</v>
+      </c>
+      <c r="D243">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>284</v>
+      </c>
+      <c r="B244">
+        <v>1441</v>
+      </c>
+      <c r="C244">
+        <v>1582</v>
+      </c>
+      <c r="D244">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>285</v>
+      </c>
+      <c r="B245">
+        <v>1404</v>
+      </c>
+      <c r="C245">
+        <v>1586</v>
+      </c>
+      <c r="D245">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>286</v>
+      </c>
+      <c r="B246">
+        <v>2793</v>
+      </c>
+      <c r="C246">
+        <v>3158</v>
+      </c>
+      <c r="D246">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>287</v>
+      </c>
+      <c r="B247">
+        <v>7312</v>
+      </c>
+      <c r="C247">
+        <v>7941</v>
+      </c>
+      <c r="D247">
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>288</v>
+      </c>
+      <c r="B248">
+        <v>10603</v>
+      </c>
+      <c r="C248">
+        <v>11765</v>
+      </c>
+      <c r="D248">
+        <v>9586</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>289</v>
+      </c>
+      <c r="B249">
+        <v>2023</v>
+      </c>
+      <c r="C249">
+        <v>2335</v>
+      </c>
+      <c r="D249">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>290</v>
+      </c>
+      <c r="B250">
+        <v>2429</v>
+      </c>
+      <c r="C250">
+        <v>2578</v>
+      </c>
+      <c r="D250">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>291</v>
+      </c>
+      <c r="B251">
+        <v>3224</v>
+      </c>
+      <c r="C251">
+        <v>3382</v>
+      </c>
+      <c r="D251">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>292</v>
+      </c>
+      <c r="B252">
+        <v>3145</v>
+      </c>
+      <c r="C252">
+        <v>3283</v>
+      </c>
+      <c r="D252">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>293</v>
+      </c>
+      <c r="B253">
+        <v>6015</v>
+      </c>
+      <c r="C253">
+        <v>6673</v>
+      </c>
+      <c r="D253">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>294</v>
+      </c>
+      <c r="B254">
+        <v>25429</v>
+      </c>
+      <c r="C254">
+        <v>28139</v>
+      </c>
+      <c r="D254">
+        <v>22411</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>295</v>
+      </c>
+      <c r="B255">
+        <v>7589</v>
+      </c>
+      <c r="C255">
+        <v>8214</v>
+      </c>
+      <c r="D255">
+        <v>6645</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>296</v>
+      </c>
+      <c r="B256">
+        <v>1963</v>
+      </c>
+      <c r="C256">
+        <v>2165</v>
+      </c>
+      <c r="D256">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>297</v>
+      </c>
+      <c r="B257">
+        <v>1185</v>
+      </c>
+      <c r="C257">
+        <v>1168</v>
+      </c>
+      <c r="D257">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>298</v>
+      </c>
+      <c r="B258">
+        <v>2807</v>
+      </c>
+      <c r="C258">
+        <v>2938</v>
+      </c>
+      <c r="D258">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>299</v>
+      </c>
+      <c r="B259">
+        <v>3066</v>
+      </c>
+      <c r="C259">
+        <v>3221</v>
+      </c>
+      <c r="D259">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>300</v>
+      </c>
+      <c r="B260">
+        <v>4775</v>
+      </c>
+      <c r="C260">
+        <v>5100</v>
+      </c>
+      <c r="D260">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>301</v>
+      </c>
+      <c r="B261">
+        <v>5404</v>
+      </c>
+      <c r="C261">
+        <v>5836</v>
+      </c>
+      <c r="D261">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>302</v>
+      </c>
+      <c r="B262">
+        <v>2538</v>
+      </c>
+      <c r="C262">
+        <v>2785</v>
+      </c>
+      <c r="D262">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>303</v>
+      </c>
+      <c r="B263">
+        <v>3553</v>
+      </c>
+      <c r="C263">
+        <v>3832</v>
+      </c>
+      <c r="D263">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>304</v>
+      </c>
+      <c r="B264">
+        <v>21591</v>
+      </c>
+      <c r="C264">
+        <v>22567</v>
+      </c>
+      <c r="D264">
+        <v>17923</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>305</v>
+      </c>
+      <c r="B265">
+        <v>1236</v>
+      </c>
+      <c r="C265">
+        <v>1285</v>
+      </c>
+      <c r="D265">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>306</v>
+      </c>
+      <c r="B266">
+        <v>3013</v>
+      </c>
+      <c r="C266">
+        <v>3033</v>
+      </c>
+      <c r="D266">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>307</v>
+      </c>
+      <c r="B267">
+        <v>3153</v>
+      </c>
+      <c r="C267">
+        <v>3281</v>
+      </c>
+      <c r="D267">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>308</v>
+      </c>
+      <c r="B268">
+        <v>32103</v>
+      </c>
+      <c r="C268">
+        <v>35463</v>
+      </c>
+      <c r="D268">
+        <v>28393</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>309</v>
+      </c>
+      <c r="B269">
+        <v>11598</v>
+      </c>
+      <c r="C269">
+        <v>12120</v>
+      </c>
+      <c r="D269">
+        <v>9682</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>310</v>
+      </c>
+      <c r="B270">
+        <v>16260</v>
+      </c>
+      <c r="C270">
+        <v>17254</v>
+      </c>
+      <c r="D270">
+        <v>14128</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>311</v>
+      </c>
+      <c r="B271">
+        <v>34949</v>
+      </c>
+      <c r="C271">
+        <v>37424</v>
+      </c>
+      <c r="D271">
+        <v>29539</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>312</v>
+      </c>
+      <c r="B272">
+        <v>2744</v>
+      </c>
+      <c r="C272">
+        <v>2721</v>
+      </c>
+      <c r="D272">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>313</v>
+      </c>
+      <c r="B273">
+        <v>21808</v>
+      </c>
+      <c r="C273">
+        <v>22831</v>
+      </c>
+      <c r="D273">
+        <v>18036</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>314</v>
+      </c>
+      <c r="B274">
+        <v>28731</v>
+      </c>
+      <c r="C274">
+        <v>31165</v>
+      </c>
+      <c r="D274">
+        <v>25256</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>315</v>
+      </c>
+      <c r="B275">
+        <v>5436</v>
+      </c>
+      <c r="C275">
+        <v>5830</v>
+      </c>
+      <c r="D275">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>316</v>
+      </c>
+      <c r="B276">
+        <v>18593</v>
+      </c>
+      <c r="C276">
+        <v>19220</v>
+      </c>
+      <c r="D276">
+        <v>15760</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>317</v>
+      </c>
+      <c r="B277">
+        <v>13572</v>
+      </c>
+      <c r="C277">
+        <v>13964</v>
+      </c>
+      <c r="D277">
+        <v>11632</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>318</v>
+      </c>
+      <c r="B278">
+        <v>2787</v>
+      </c>
+      <c r="C278">
+        <v>2935</v>
+      </c>
+      <c r="D278">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>319</v>
+      </c>
+      <c r="B279">
+        <v>9054</v>
+      </c>
+      <c r="C279">
+        <v>9774</v>
+      </c>
+      <c r="D279">
+        <v>7665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>